--- a/Chekс List (HW11).xlsx
+++ b/Chekс List (HW11).xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Арсений\OneDrive\Рабочий стол\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA9C9F3-370E-4F37-8DCD-5C397F3E3CD7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DEF876E6-86FB-4CCF-818F-E109DA160113}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1995" yWindow="3045" windowWidth="26805" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,6 +553,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr>
+    <tabColor theme="7" tint="-0.249977111117893"/>
+  </sheetPr>
   <dimension ref="A1:K19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -795,6 +798,9 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DC519404-27CB-4209-8961-C38035DEEA40}">
+  <sheetPr>
+    <tabColor theme="4" tint="0.39997558519241921"/>
+  </sheetPr>
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView topLeftCell="A13" workbookViewId="0"/>
